--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Parameter unit category.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Parameter unit category.xlsx
@@ -26,52 +26,136 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>Arbitrary Fraction</t>
+  </si>
+  <si>
+    <t>Parameter unit category_6</t>
+  </si>
+  <si>
+    <t>Dimensionless Quantity</t>
+  </si>
+  <si>
+    <t>Parameter unit category_22</t>
+  </si>
+  <si>
+    <t>Energy Content</t>
+  </si>
+  <si>
+    <t>Parameter unit category_7</t>
+  </si>
+  <si>
+    <t>Energy Content Rate</t>
+  </si>
+  <si>
+    <t>Parameter unit category_8</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Parameter unit category_12</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Parameter unit category_18</t>
+  </si>
+  <si>
+    <t>Mass Concentration</t>
+  </si>
+  <si>
+    <t>Parameter unit category_5</t>
+  </si>
+  <si>
+    <t>Mass Ratio</t>
+  </si>
+  <si>
+    <t>Parameter unit category_4</t>
+  </si>
+  <si>
+    <t>Mole Content</t>
+  </si>
+  <si>
+    <t>Parameter unit category_11</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Parameter unit category_19</t>
+  </si>
+  <si>
+    <t>Number Aeric (number/area)</t>
+  </si>
+  <si>
+    <t>Parameter unit category_3</t>
+  </si>
+  <si>
+    <t>Number Concentration Difference</t>
+  </si>
+  <si>
+    <t>Parameter unit category_17</t>
+  </si>
+  <si>
     <t>Number Content (count/mass)</t>
   </si>
   <si>
     <t>Parameter unit category_1</t>
   </si>
   <si>
+    <t>Number Content Difference</t>
+  </si>
+  <si>
+    <t>Parameter unit category_15</t>
+  </si>
+  <si>
+    <t>Number Difference</t>
+  </si>
+  <si>
+    <t>Parameter unit category_14</t>
+  </si>
+  <si>
+    <t>Number Fraction</t>
+  </si>
+  <si>
+    <t>Parameter unit category_16</t>
+  </si>
+  <si>
     <t>Numer Concentration (count/vol)</t>
   </si>
   <si>
     <t>Parameter unit category_2</t>
   </si>
   <si>
-    <t>Number Aeric (number/area)</t>
-  </si>
-  <si>
-    <t>Parameter unit category_3</t>
-  </si>
-  <si>
-    <t>Mass Ratio</t>
-  </si>
-  <si>
-    <t>Parameter unit category_4</t>
-  </si>
-  <si>
-    <t>Mass Concentration</t>
-  </si>
-  <si>
-    <t>Parameter unit category_5</t>
-  </si>
-  <si>
-    <t>Arbitrary Fraction</t>
-  </si>
-  <si>
-    <t>Parameter unit category_6</t>
-  </si>
-  <si>
-    <t>Energy Content</t>
-  </si>
-  <si>
-    <t>Parameter unit category_7</t>
-  </si>
-  <si>
-    <t>Energy Content Rate</t>
-  </si>
-  <si>
-    <t>Parameter unit category_8</t>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Parameter unit category_25</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Parameter unit category_10</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Parameter unit category_13</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Parameter unit category_20</t>
+  </si>
+  <si>
+    <t>True/False Value</t>
+  </si>
+  <si>
+    <t>Parameter unit category_23</t>
   </si>
   <si>
     <t>Unknown</t>
@@ -80,100 +164,16 @@
     <t>Parameter unit category_9</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>Parameter unit category_10</t>
-  </si>
-  <si>
-    <t>Mole Content</t>
-  </si>
-  <si>
-    <t>Parameter unit category_11</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Parameter unit category_12</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Parameter unit category_13</t>
-  </si>
-  <si>
-    <t>Number Difference</t>
-  </si>
-  <si>
-    <t>Parameter unit category_14</t>
-  </si>
-  <si>
-    <t>Number Content Difference</t>
-  </si>
-  <si>
-    <t>Parameter unit category_15</t>
-  </si>
-  <si>
-    <t>Number Fraction</t>
-  </si>
-  <si>
-    <t>Parameter unit category_16</t>
-  </si>
-  <si>
-    <t>Number Concentration Difference</t>
-  </si>
-  <si>
-    <t>Parameter unit category_17</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>Parameter unit category_18</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Parameter unit category_19</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Parameter unit category_20</t>
+    <t>Volume Concentration</t>
+  </si>
+  <si>
+    <t>Parameter unit category_24</t>
   </si>
   <si>
     <t>Volume Ratio</t>
   </si>
   <si>
     <t>Parameter unit category_21</t>
-  </si>
-  <si>
-    <t>Dimensionless Quantity</t>
-  </si>
-  <si>
-    <t>Parameter unit category_22</t>
-  </si>
-  <si>
-    <t>True/False Value</t>
-  </si>
-  <si>
-    <t>Parameter unit category_23</t>
-  </si>
-  <si>
-    <t>Volume Concentration</t>
-  </si>
-  <si>
-    <t>Parameter unit category_24</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Parameter unit category_25</t>
   </si>
 </sst>
 </file>
